--- a/biology/Zoologie/Anomura/Anomura.xlsx
+++ b/biology/Zoologie/Anomura/Anomura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anomura, ou anomoures, forment un infra-ordre de crustacés qui comprend notamment les bernard l'ermite, les galathées et les crabes royaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anomoures appartiennent à l'infra-ordre des Anomura (du grec ανόμοιος/anomoios, qui signifie différent, et ουρά/oura, qui signifie queue). Ce sont des crustacés caractérisés par l'atrophie de la cinquième paire de pattes, utilisée pour le nettoyage des branchies. Ils comprennent les pagures (ou « bernard-l'ermite »), les galathées, les crabes royaux et les crabes porcelaine.
 </t>
@@ -542,10 +556,12 @@
           <t>liste des super-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude phylogénétique récente (2007)[1] a distingué ces sept superfamilles.
-Selon World Register of Marine Species                               (15 février 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude phylogénétique récente (2007) a distingué ces sept superfamilles.
+Selon World Register of Marine Species                               (15 février 2016) :
 super-famille Aegloidea Dana, 1852
 famille Aeglidae Dana, 1852
 super-famille Chirostyloidea Ortmann, 1892
